--- a/evaluation/results/returned_contexts_task_0.xlsx
+++ b/evaluation/results/returned_contexts_task_0.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>question</t>
   </si>
   <si>
     <t>essence_coach</t>
+  </si>
+  <si>
+    <t>returned_contexts</t>
   </si>
   <si>
     <t>What is Essence Kernel Automation? Write less than 100 words.</t>
@@ -95,6 +98,39 @@
 Continuously improving and reflecting on the process
 Using a visual language to capture practices and progress
 Adopting a flexible and iterative approach to software development."</t>
+  </si>
+  <si>
+    <t>Essence Kernel Automation refers to the process of using ontology-based automation to evaluate software project progress, reducing reliance on manual tracking.</t>
+  </si>
+  <si>
+    <t>It enhances software development by providing a standardized method to track progress, ensuring consistency, and reducing human error in project evaluations.</t>
+  </si>
+  <si>
+    <t>The framework consists of Alphas (fundamental software elements), Activity Spaces (development phases), and Competencies (skills required for project success).</t>
+  </si>
+  <si>
+    <t>It complements Agile, Waterfall, and DevOps by introducing a structured, automated approach to tracking progress and evaluating project health.</t>
+  </si>
+  <si>
+    <t>Key advantages include improved accuracy in tracking, reduced administrative overhead, enhanced collaboration, and better project predictability.</t>
+  </si>
+  <si>
+    <t>Ontology defines relationships between software components, enabling automated reasoning and structured decision-making based on project data.</t>
+  </si>
+  <si>
+    <t>It provides stakeholders with real-time insights into project status, allowing them to make informed decisions without relying on subjective reporting.</t>
+  </si>
+  <si>
+    <t>By offering a unified framework for tracking progress, it ensures that all team members have a clear understanding of development milestones and objectives.</t>
+  </si>
+  <si>
+    <t>It solves issues related to inconsistent progress tracking, lack of transparency, and inefficiencies in manual software health assessments.</t>
+  </si>
+  <si>
+    <t>Project managers benefit from automated reports, clear visualizations of progress, and improved ability to allocate resources effectively.</t>
+  </si>
+  <si>
+    <t>Data serves as the foundation for automated assessments, enabling continuous monitoring of software performance and milestone achievements.</t>
   </si>
 </sst>
 </file>
@@ -452,106 +488,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
